--- a/data_ocean/fixtures/luxury_cars_2021.xlsx
+++ b/data_ocean/fixtures/luxury_cars_2021.xlsx
@@ -541,7 +541,7 @@
     <t xml:space="preserve">S 450L</t>
   </si>
   <si>
-    <t xml:space="preserve">S 63 4MATIC+ Coupé</t>
+    <t xml:space="preserve">S 63 4MATIC+ Coupe</t>
   </si>
   <si>
     <t xml:space="preserve">S 600</t>
@@ -989,7 +989,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1074,10 +1074,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,22 +1098,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1140,10 +1120,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1196,10 +1172,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1293,18 +1265,18 @@
   </sheetPr>
   <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B161" activeCellId="0" sqref="B161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B173" activeCellId="0" sqref="B173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="24.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1618,10 +1590,10 @@
       <c r="D18" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="22"/>
+      <c r="E18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
@@ -1636,10 +1608,10 @@
       <c r="D19" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="23"/>
+      <c r="E19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -1654,10 +1626,10 @@
       <c r="D20" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="23"/>
+      <c r="E20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
@@ -1672,10 +1644,10 @@
       <c r="D21" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="23"/>
+      <c r="E21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
@@ -1690,10 +1662,10 @@
       <c r="D22" s="16" t="n">
         <v>3993</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="23"/>
+      <c r="E22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
@@ -1708,112 +1680,112 @@
       <c r="D23" s="16" t="n">
         <v>3993</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="23"/>
+      <c r="E23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="26" t="n">
+      <c r="C24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="26" t="n">
+      <c r="C25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="26" t="n">
+      <c r="C26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="26" t="n">
+      <c r="C27" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="26" t="n">
+      <c r="C28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="26" t="n">
+      <c r="C29" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="25" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1822,19 +1794,19 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="26" t="n">
+      <c r="C30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="8"/>
@@ -1846,7 +1818,7 @@
       <c r="B31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="6" t="n">
@@ -1861,7 +1833,7 @@
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1888,7 +1860,7 @@
       <c r="D33" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="8"/>
@@ -1906,7 +1878,7 @@
       <c r="D34" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="8"/>
@@ -1918,13 +1890,13 @@
       <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="8"/>
@@ -1936,13 +1908,13 @@
       <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="8"/>
@@ -1954,13 +1926,13 @@
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="8"/>
@@ -1972,13 +1944,13 @@
       <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="8"/>
@@ -1987,16 +1959,16 @@
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="8"/>
@@ -2008,13 +1980,13 @@
       <c r="B40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="8"/>
@@ -2026,13 +1998,13 @@
       <c r="B41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="8"/>
@@ -2044,13 +2016,13 @@
       <c r="B42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="8"/>
@@ -2062,13 +2034,13 @@
       <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="8"/>
@@ -2080,13 +2052,13 @@
       <c r="B44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="8"/>
@@ -2098,13 +2070,13 @@
       <c r="B45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="8"/>
@@ -2116,13 +2088,13 @@
       <c r="B46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="8"/>
@@ -2134,13 +2106,13 @@
       <c r="B47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="8"/>
@@ -2149,16 +2121,16 @@
       <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="8"/>
@@ -2176,7 +2148,7 @@
       <c r="D49" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="8"/>
@@ -2194,7 +2166,7 @@
       <c r="D50" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="8"/>
@@ -2206,10 +2178,10 @@
       <c r="B51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="32" t="n">
+      <c r="C51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="27" t="n">
         <v>4.4</v>
       </c>
       <c r="E51" s="17" t="s">
@@ -2224,10 +2196,10 @@
       <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="32" t="n">
+      <c r="C52" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="27" t="n">
         <v>4.4</v>
       </c>
       <c r="E52" s="17" t="s">
@@ -2242,13 +2214,13 @@
       <c r="B53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="8"/>
@@ -2260,7 +2232,7 @@
       <c r="B54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="6" t="n">
@@ -2293,16 +2265,16 @@
       <c r="A56" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="28" t="n">
+      <c r="C56" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="10" t="n">
         <v>6.2</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="8"/>
@@ -2311,16 +2283,16 @@
       <c r="A57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="31" t="n">
+      <c r="C57" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="20" t="n">
         <v>6.2</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="8"/>
@@ -2329,16 +2301,16 @@
       <c r="A58" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="37" t="n">
+      <c r="C58" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="32" t="n">
         <v>5.4</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="8"/>
@@ -2350,16 +2322,16 @@
       <c r="B59" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="20" t="n">
         <v>3.9</v>
       </c>
-      <c r="E59" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="23"/>
+      <c r="E59" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
@@ -2368,16 +2340,16 @@
       <c r="B60" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="20" t="n">
         <v>3.9</v>
       </c>
-      <c r="E60" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="23"/>
+      <c r="E60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
@@ -2386,16 +2358,16 @@
       <c r="B61" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="20" t="n">
         <v>3.9</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="23"/>
+      <c r="E61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
@@ -2404,16 +2376,16 @@
       <c r="B62" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="20" t="n">
         <v>3.9</v>
       </c>
-      <c r="E62" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="23"/>
+      <c r="E62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
@@ -2422,16 +2394,16 @@
       <c r="B63" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="20" t="n">
         <v>6.5</v>
       </c>
-      <c r="E63" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="23"/>
+      <c r="E63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
@@ -2440,16 +2412,16 @@
       <c r="B64" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="16" t="n">
         <v>6262</v>
       </c>
-      <c r="E64" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="23"/>
+      <c r="E64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
@@ -2458,67 +2430,67 @@
       <c r="B65" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="23"/>
+      <c r="E65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="31" t="n">
+      <c r="C66" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="20" t="n">
         <v>3.9</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="31" t="n">
+      <c r="C67" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="20" t="n">
         <v>3.9</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="31" t="n">
+      <c r="C68" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="20" t="n">
         <v>6.5</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="8"/>
@@ -2527,16 +2499,16 @@
       <c r="A69" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="28" t="n">
+      <c r="D69" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="8"/>
@@ -2545,16 +2517,16 @@
       <c r="A70" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="28" t="n">
+      <c r="C70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="8"/>
@@ -2563,16 +2535,16 @@
       <c r="A71" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="28" t="n">
+      <c r="C71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="8"/>
@@ -2581,16 +2553,16 @@
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="28" t="n">
+      <c r="C72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="8"/>
@@ -2599,16 +2571,16 @@
       <c r="A73" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="28" t="n">
+      <c r="C73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="8"/>
@@ -2617,16 +2589,16 @@
       <c r="A74" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="28" t="n">
+      <c r="D74" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="8"/>
@@ -2635,16 +2607,16 @@
       <c r="A75" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="8"/>
@@ -2653,16 +2625,16 @@
       <c r="A76" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="37" t="n">
+      <c r="C76" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="32" t="n">
         <v>5.2</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="8"/>
@@ -2671,16 +2643,16 @@
       <c r="A77" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="37" t="n">
+      <c r="C77" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="32" t="n">
         <v>6.5</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="8"/>
@@ -2689,16 +2661,16 @@
       <c r="A78" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="37" t="n">
+      <c r="C78" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="8"/>
@@ -2710,16 +2682,16 @@
       <c r="B79" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="20" t="n">
         <v>6.2</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="23"/>
+      <c r="E79" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
@@ -2728,16 +2700,16 @@
       <c r="B80" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="E80" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="23"/>
+      <c r="E80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
@@ -2746,31 +2718,31 @@
       <c r="B81" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="23"/>
+      <c r="E81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="31" t="n">
+      <c r="C82" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F82" s="8"/>
@@ -2779,16 +2751,16 @@
       <c r="A83" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31" t="n">
+      <c r="D83" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="8"/>
@@ -2797,16 +2769,16 @@
       <c r="A84" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="31" t="n">
+      <c r="D84" s="20" t="n">
         <v>4.4</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F84" s="8"/>
@@ -2815,16 +2787,16 @@
       <c r="A85" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D85" s="31" t="n">
+      <c r="D85" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F85" s="8"/>
@@ -2833,16 +2805,16 @@
       <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="31" t="n">
+      <c r="C86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="8"/>
@@ -2851,16 +2823,16 @@
       <c r="A87" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="31" t="n">
+      <c r="C87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="8"/>
@@ -2869,16 +2841,16 @@
       <c r="A88" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="31" t="n">
+      <c r="C88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="8"/>
@@ -2887,16 +2859,16 @@
       <c r="A89" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="31" t="n">
+      <c r="C89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F89" s="8"/>
@@ -2905,16 +2877,16 @@
       <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="31" t="n">
+      <c r="C90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="20" t="n">
         <v>4.4</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F90" s="8"/>
@@ -2926,16 +2898,16 @@
       <c r="B91" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="16" t="n">
         <v>2993</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="23"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
@@ -2944,16 +2916,16 @@
       <c r="B92" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="16" t="n">
         <v>2993</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F92" s="23"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
@@ -2962,16 +2934,16 @@
       <c r="B93" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="16" t="n">
         <v>4367</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="23"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
@@ -2980,16 +2952,16 @@
       <c r="B94" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="35" t="s">
         <v>55</v>
       </c>
       <c r="D94" s="16" t="n">
         <v>1997</v>
       </c>
-      <c r="E94" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="23"/>
+      <c r="E94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
@@ -2998,16 +2970,16 @@
       <c r="B95" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="16" t="n">
         <v>4999</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="23"/>
+      <c r="E95" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
@@ -3016,16 +2988,16 @@
       <c r="B96" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="16" t="n">
         <v>2993</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E96" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="23"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
@@ -3034,16 +3006,16 @@
       <c r="B97" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="16" t="n">
         <v>4367</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
@@ -3052,16 +3024,16 @@
       <c r="B98" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="35" t="s">
         <v>55</v>
       </c>
       <c r="D98" s="16" t="n">
         <v>1997</v>
       </c>
-      <c r="E98" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="23"/>
+      <c r="E98" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
@@ -3070,16 +3042,16 @@
       <c r="B99" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="16" t="n">
         <v>4999</v>
       </c>
-      <c r="E99" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="23"/>
+      <c r="E99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="22"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
@@ -3088,16 +3060,16 @@
       <c r="B100" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="16" t="n">
         <v>4999</v>
       </c>
-      <c r="E100" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="23"/>
+      <c r="E100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
@@ -3106,16 +3078,16 @@
       <c r="B101" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="16" t="n">
         <v>2993</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F101" s="23"/>
+      <c r="F101" s="22"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
@@ -3124,16 +3096,16 @@
       <c r="B102" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="16" t="n">
         <v>2993</v>
       </c>
-      <c r="E102" s="21" t="s">
+      <c r="E102" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F102" s="23"/>
+      <c r="F102" s="22"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
@@ -3142,16 +3114,16 @@
       <c r="B103" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="42" t="s">
+      <c r="C103" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="16" t="n">
         <v>4367</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="E103" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F103" s="23"/>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
@@ -3160,16 +3132,16 @@
       <c r="B104" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="16" t="n">
         <v>1997</v>
       </c>
-      <c r="E104" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="23"/>
+      <c r="E104" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="22"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
@@ -3178,16 +3150,16 @@
       <c r="B105" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="16" t="n">
         <v>4999</v>
       </c>
-      <c r="E105" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="23"/>
+      <c r="E105" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
@@ -3196,16 +3168,16 @@
       <c r="B106" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="16" t="n">
         <v>2993</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="23"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
@@ -3214,16 +3186,16 @@
       <c r="B107" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="42" t="s">
+      <c r="C107" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="16" t="n">
         <v>4367</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E107" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F107" s="23"/>
+      <c r="F107" s="22"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
@@ -3232,16 +3204,16 @@
       <c r="B108" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C108" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D108" s="16" t="n">
         <v>1997</v>
       </c>
-      <c r="E108" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="23"/>
+      <c r="E108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
@@ -3250,16 +3222,16 @@
       <c r="B109" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="C109" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D109" s="16" t="n">
         <v>4999</v>
       </c>
-      <c r="E109" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="23"/>
+      <c r="E109" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="22"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
@@ -3268,16 +3240,16 @@
       <c r="B110" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="42" t="s">
+      <c r="C110" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D110" s="16" t="n">
         <v>4999</v>
       </c>
-      <c r="E110" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="23"/>
+      <c r="E110" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
@@ -3286,7 +3258,7 @@
       <c r="B111" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="42" t="s">
+      <c r="C111" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D111" s="16" t="n">
@@ -3295,7 +3267,7 @@
       <c r="E111" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F111" s="23"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
@@ -3304,7 +3276,7 @@
       <c r="B112" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="42" t="s">
+      <c r="C112" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="16" t="n">
@@ -3313,22 +3285,22 @@
       <c r="E112" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F112" s="23"/>
+      <c r="F112" s="22"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="31" t="n">
+      <c r="D113" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F113" s="8"/>
@@ -3337,16 +3309,16 @@
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="31" t="n">
+      <c r="D114" s="20" t="n">
         <v>5.7</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="8"/>
@@ -3355,16 +3327,16 @@
       <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="31" t="n">
+      <c r="D115" s="20" t="n">
         <v>5.7</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="8"/>
@@ -3373,16 +3345,16 @@
       <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="31" t="n">
+      <c r="D116" s="20" t="n">
         <v>5.7</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="8"/>
@@ -3391,16 +3363,16 @@
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="28" t="n">
+      <c r="C117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="10" t="n">
         <v>5.7</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F117" s="8"/>
@@ -3409,16 +3381,16 @@
       <c r="A118" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="28" t="n">
+      <c r="D118" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="8"/>
@@ -3427,16 +3399,16 @@
       <c r="A119" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="28" t="n">
+      <c r="C119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="8"/>
@@ -3445,16 +3417,16 @@
       <c r="A120" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D120" s="28" t="n">
+      <c r="D120" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F120" s="8"/>
@@ -3463,16 +3435,16 @@
       <c r="A121" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D121" s="28" t="n">
+      <c r="D121" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F121" s="8"/>
@@ -3481,16 +3453,16 @@
       <c r="A122" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="28" t="n">
+      <c r="C122" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F122" s="8"/>
@@ -3499,16 +3471,16 @@
       <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="28" t="n">
+      <c r="D123" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="8"/>
@@ -3517,16 +3489,16 @@
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="28" t="n">
+      <c r="C124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="10" t="n">
         <v>4.2</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F124" s="8"/>
@@ -3535,16 +3507,16 @@
       <c r="A125" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="28" t="n">
+      <c r="C125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="10" t="n">
         <v>4.7</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F125" s="8"/>
@@ -3553,16 +3525,16 @@
       <c r="A126" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="28" t="n">
+      <c r="C126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F126" s="8"/>
@@ -3580,7 +3552,7 @@
       <c r="D127" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E127" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F127" s="8"/>
@@ -3598,7 +3570,7 @@
       <c r="D128" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="8"/>
@@ -3616,7 +3588,7 @@
       <c r="D129" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E129" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F129" s="12"/>
@@ -3634,7 +3606,7 @@
       <c r="D130" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E130" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="12"/>
@@ -3652,7 +3624,7 @@
       <c r="D131" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E131" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F131" s="12"/>
@@ -3670,7 +3642,7 @@
       <c r="D132" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E132" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F132" s="8"/>
@@ -3706,7 +3678,7 @@
       <c r="D134" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="8"/>
@@ -3724,7 +3696,7 @@
       <c r="D135" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="8"/>
@@ -3742,7 +3714,7 @@
       <c r="D136" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E136" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="8"/>
@@ -3760,7 +3732,7 @@
       <c r="D137" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E137" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="8"/>
@@ -3778,7 +3750,7 @@
       <c r="D138" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="8"/>
@@ -3796,7 +3768,7 @@
       <c r="D139" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E139" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="8"/>
@@ -3928,16 +3900,16 @@
       <c r="F146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" s="44" t="s">
+      <c r="A147" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B147" s="38" t="s">
         <v>152</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="45" t="n">
+      <c r="D147" s="39" t="n">
         <v>4</v>
       </c>
       <c r="E147" s="11" t="s">
@@ -4075,7 +4047,7 @@
       <c r="A155" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B155" s="46" t="s">
+      <c r="B155" s="40" t="s">
         <v>160</v>
       </c>
       <c r="C155" s="10" t="s">
@@ -4090,19 +4062,19 @@
       <c r="F155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B156" s="48" t="s">
+      <c r="A156" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D156" s="49" t="n">
+      <c r="D156" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E156" s="50" t="s">
+      <c r="E156" s="44" t="s">
         <v>70</v>
       </c>
       <c r="F156" s="8"/>
@@ -4111,7 +4083,7 @@
       <c r="A157" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="40" t="s">
         <v>162</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -4120,7 +4092,7 @@
       <c r="D157" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F157" s="8"/>
@@ -4129,7 +4101,7 @@
       <c r="A158" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C158" s="10" t="s">
@@ -4138,7 +4110,7 @@
       <c r="D158" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F158" s="8"/>
@@ -4147,7 +4119,7 @@
       <c r="A159" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="40" t="s">
         <v>164</v>
       </c>
       <c r="C159" s="20" t="s">
@@ -4156,7 +4128,7 @@
       <c r="D159" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F159" s="8"/>
@@ -4165,7 +4137,7 @@
       <c r="A160" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="40" t="s">
         <v>165</v>
       </c>
       <c r="C160" s="20" t="s">
@@ -4174,7 +4146,7 @@
       <c r="D160" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F160" s="8"/>
@@ -4201,7 +4173,7 @@
       <c r="A162" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="40" t="s">
         <v>167</v>
       </c>
       <c r="C162" s="20" t="s">
@@ -4210,7 +4182,7 @@
       <c r="D162" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E162" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="8"/>
@@ -4219,7 +4191,7 @@
       <c r="A163" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="40" t="s">
         <v>168</v>
       </c>
       <c r="C163" s="20" t="s">
@@ -4228,7 +4200,7 @@
       <c r="D163" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="8"/>
@@ -4237,7 +4209,7 @@
       <c r="A164" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="40" t="s">
         <v>169</v>
       </c>
       <c r="C164" s="20" t="s">
@@ -4246,7 +4218,7 @@
       <c r="D164" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="E164" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="8"/>
@@ -4255,7 +4227,7 @@
       <c r="A165" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="40" t="s">
         <v>170</v>
       </c>
       <c r="C165" s="20" t="s">
@@ -4273,16 +4245,16 @@
       <c r="A166" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D166" s="16" t="n">
         <v>2999</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="E166" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="8"/>
@@ -4291,16 +4263,16 @@
       <c r="A167" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C167" s="51" t="s">
+      <c r="C167" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D167" s="16" t="n">
         <v>2999</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="E167" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="8"/>
@@ -4309,16 +4281,16 @@
       <c r="A168" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="40" t="s">
         <v>173</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D168" s="28" t="n">
+      <c r="D168" s="10" t="n">
         <v>5.5</v>
       </c>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="8"/>
@@ -4327,199 +4299,199 @@
       <c r="A169" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B169" s="46" t="s">
+      <c r="B169" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C169" s="42" t="s">
+      <c r="C169" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="E169" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F169" s="23"/>
+      <c r="E169" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="22"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C170" s="42" t="s">
+      <c r="C170" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D170" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="23"/>
+      <c r="E170" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="22"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C171" s="42" t="s">
+      <c r="C171" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D171" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E171" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="23"/>
+      <c r="E171" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="22"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="C172" s="42" t="s">
+      <c r="C172" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D172" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E172" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="23"/>
+      <c r="E172" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="22"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C173" s="42" t="s">
+      <c r="C173" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D173" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E173" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="23"/>
+      <c r="E173" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="22"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C174" s="42" t="s">
+      <c r="C174" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D174" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E174" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="23"/>
+      <c r="E174" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="22"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C175" s="42" t="s">
+      <c r="C175" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D175" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E175" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" s="23"/>
+      <c r="E175" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="22"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C176" s="42" t="s">
+      <c r="C176" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D176" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E176" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="23"/>
+      <c r="E176" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="22"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C177" s="42" t="s">
+      <c r="C177" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D177" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E177" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="23"/>
+      <c r="E177" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="22"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C178" s="42" t="s">
+      <c r="C178" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D178" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="23"/>
+      <c r="E178" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="22"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="C179" s="42" t="s">
+      <c r="C179" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D179" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E179" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" s="23"/>
+      <c r="E179" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="22"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
@@ -4528,16 +4500,16 @@
       <c r="B180" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C180" s="42" t="s">
+      <c r="C180" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D180" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E180" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" s="23"/>
+      <c r="E180" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="22"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
@@ -4546,16 +4518,16 @@
       <c r="B181" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C181" s="42" t="s">
+      <c r="C181" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D181" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E181" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="23"/>
+      <c r="E181" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="22"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
@@ -4564,16 +4536,16 @@
       <c r="B182" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C182" s="42" t="s">
+      <c r="C182" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D182" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E182" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="23"/>
+      <c r="E182" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="22"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="8" t="s">
@@ -4582,16 +4554,16 @@
       <c r="B183" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C183" s="42" t="s">
+      <c r="C183" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D183" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E183" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="23"/>
+      <c r="E183" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="22"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
@@ -4600,16 +4572,16 @@
       <c r="B184" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C184" s="42" t="s">
+      <c r="C184" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D184" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E184" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="23"/>
+      <c r="E184" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="22"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
@@ -4618,16 +4590,16 @@
       <c r="B185" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C185" s="42" t="s">
+      <c r="C185" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D185" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E185" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="23"/>
+      <c r="E185" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="22"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
@@ -4636,25 +4608,25 @@
       <c r="B186" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C186" s="41" t="s">
+      <c r="C186" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D186" s="20" t="n">
         <v>5.5</v>
       </c>
-      <c r="E186" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="23"/>
+      <c r="E186" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="22"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B187" s="52" t="s">
+      <c r="B187" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C187" s="42" t="s">
+      <c r="C187" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D187" s="16" t="n">
@@ -4663,40 +4635,40 @@
       <c r="E187" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F187" s="23"/>
+      <c r="F187" s="22"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B188" s="52" t="s">
+      <c r="B188" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C188" s="42" t="s">
+      <c r="C188" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="16" t="n">
         <v>4663</v>
       </c>
-      <c r="E188" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="23"/>
+      <c r="E188" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="22"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="29" t="s">
+      <c r="B189" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C189" s="28" t="s">
+      <c r="C189" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D189" s="28" t="n">
+      <c r="D189" s="10" t="n">
         <v>2.981</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F189" s="8"/>
@@ -4705,16 +4677,16 @@
       <c r="A190" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B190" s="29" t="s">
+      <c r="B190" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D190" s="28" t="n">
+      <c r="D190" s="10" t="n">
         <v>2.981</v>
       </c>
-      <c r="E190" s="30" t="s">
+      <c r="E190" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F190" s="8"/>
@@ -4723,16 +4695,16 @@
       <c r="A191" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B191" s="29" t="s">
+      <c r="B191" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="28" t="n">
+      <c r="D191" s="10" t="n">
         <v>2.981</v>
       </c>
-      <c r="E191" s="30" t="s">
+      <c r="E191" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="8"/>
@@ -4741,16 +4713,16 @@
       <c r="A192" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="29" t="s">
+      <c r="B192" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C192" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="28" t="n">
+      <c r="C192" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="10" t="n">
         <v>2.981</v>
       </c>
-      <c r="E192" s="30" t="s">
+      <c r="E192" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F192" s="8"/>
@@ -4759,16 +4731,16 @@
       <c r="A193" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="29" t="s">
+      <c r="B193" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C193" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="28" t="n">
+      <c r="C193" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="10" t="n">
         <v>3.745</v>
       </c>
-      <c r="E193" s="30" t="s">
+      <c r="E193" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F193" s="8"/>
@@ -4777,16 +4749,16 @@
       <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="29" t="s">
+      <c r="B194" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C194" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="28" t="n">
+      <c r="C194" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="10" t="n">
         <v>3.745</v>
       </c>
-      <c r="E194" s="30" t="s">
+      <c r="E194" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F194" s="8"/>
@@ -4795,14 +4767,14 @@
       <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="29" t="s">
+      <c r="B195" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C195" s="28" t="s">
+      <c r="C195" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="30" t="s">
+      <c r="D195" s="10"/>
+      <c r="E195" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F195" s="8"/>
@@ -4811,14 +4783,14 @@
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="29" t="s">
+      <c r="B196" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C196" s="28" t="s">
+      <c r="C196" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D196" s="28"/>
-      <c r="E196" s="30" t="s">
+      <c r="D196" s="10"/>
+      <c r="E196" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F196" s="12"/>
@@ -4827,14 +4799,14 @@
       <c r="A197" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B197" s="29" t="s">
+      <c r="B197" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C197" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="28"/>
-      <c r="E197" s="30" t="s">
+      <c r="C197" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="10"/>
+      <c r="E197" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F197" s="12"/>
@@ -4843,14 +4815,14 @@
       <c r="A198" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B198" s="53" t="s">
+      <c r="B198" s="46" t="s">
         <v>203</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D198" s="54"/>
-      <c r="E198" s="55" t="s">
+      <c r="D198" s="47"/>
+      <c r="E198" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F198" s="12"/>
@@ -4859,16 +4831,16 @@
       <c r="A199" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B199" s="29" t="s">
+      <c r="B199" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C199" s="28" t="s">
+      <c r="C199" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D199" s="28" t="n">
+      <c r="D199" s="10" t="n">
         <v>2.894</v>
       </c>
-      <c r="E199" s="30" t="s">
+      <c r="E199" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="12"/>
@@ -4877,16 +4849,16 @@
       <c r="A200" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B200" s="29" t="s">
+      <c r="B200" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C200" s="28" t="s">
+      <c r="C200" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D200" s="28" t="n">
+      <c r="D200" s="10" t="n">
         <v>2.894</v>
       </c>
-      <c r="E200" s="30" t="s">
+      <c r="E200" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F200" s="12"/>
@@ -4895,16 +4867,16 @@
       <c r="A201" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B201" s="29" t="s">
+      <c r="B201" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C201" s="28" t="s">
+      <c r="C201" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D201" s="28" t="n">
+      <c r="D201" s="10" t="n">
         <v>2.894</v>
       </c>
-      <c r="E201" s="30" t="s">
+      <c r="E201" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="12"/>
@@ -4913,16 +4885,16 @@
       <c r="A202" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B202" s="29" t="s">
+      <c r="B202" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C202" s="28" t="s">
+      <c r="C202" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D202" s="28" t="n">
+      <c r="D202" s="10" t="n">
         <v>2.894</v>
       </c>
-      <c r="E202" s="30" t="s">
+      <c r="E202" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="12"/>
@@ -4931,16 +4903,16 @@
       <c r="A203" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B203" s="29" t="s">
+      <c r="B203" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C203" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D203" s="28" t="n">
+      <c r="C203" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="10" t="n">
         <v>2.9</v>
       </c>
-      <c r="E203" s="30" t="s">
+      <c r="E203" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F203" s="12"/>
@@ -4949,13 +4921,13 @@
       <c r="A204" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B204" s="29" t="s">
+      <c r="B204" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C204" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D204" s="28" t="n">
+      <c r="C204" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="10" t="n">
         <v>2.93</v>
       </c>
       <c r="E204" s="7" t="s">
@@ -4967,13 +4939,13 @@
       <c r="A205" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B205" s="29" t="s">
+      <c r="B205" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C205" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D205" s="28" t="n">
+      <c r="C205" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="10" t="n">
         <v>2.93</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -4982,16 +4954,16 @@
       <c r="F205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B206" s="29" t="s">
+      <c r="B206" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D206" s="28" t="n">
+      <c r="C206" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="10" t="n">
         <v>2.93</v>
       </c>
       <c r="E206" s="7" t="s">
@@ -5003,13 +4975,13 @@
       <c r="A207" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B207" s="29" t="s">
+      <c r="B207" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C207" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207" s="28" t="n">
+      <c r="C207" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="10" t="n">
         <v>2.93</v>
       </c>
       <c r="E207" s="7" t="s">
@@ -5021,13 +4993,13 @@
       <c r="A208" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B208" s="29" t="s">
+      <c r="B208" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C208" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208" s="28" t="n">
+      <c r="C208" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="10" t="n">
         <v>2.93</v>
       </c>
       <c r="E208" s="7" t="s">
@@ -5039,13 +5011,13 @@
       <c r="A209" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B209" s="29" t="s">
+      <c r="B209" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C209" s="28" t="s">
+      <c r="C209" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D209" s="28" t="n">
+      <c r="D209" s="10" t="n">
         <v>2.93</v>
       </c>
       <c r="E209" s="7" t="s">
@@ -5057,13 +5029,13 @@
       <c r="A210" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B210" s="29" t="s">
+      <c r="B210" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="28" t="s">
+      <c r="C210" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D210" s="31" t="n">
+      <c r="D210" s="20" t="n">
         <v>2.93</v>
       </c>
       <c r="E210" s="7" t="s">
@@ -5075,16 +5047,16 @@
       <c r="A211" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B211" s="29" t="s">
+      <c r="B211" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C211" s="28" t="s">
+      <c r="C211" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D211" s="32" t="n">
+      <c r="D211" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E211" s="41" t="s">
+      <c r="E211" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F211" s="12"/>
@@ -5093,16 +5065,16 @@
       <c r="A212" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="C212" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D212" s="32" t="n">
+      <c r="D212" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E212" s="41" t="s">
+      <c r="E212" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="12"/>
@@ -5111,16 +5083,16 @@
       <c r="A213" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B213" s="29" t="s">
+      <c r="B213" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C213" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="32" t="n">
+      <c r="C213" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E213" s="41" t="s">
+      <c r="E213" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="12"/>
@@ -5129,16 +5101,16 @@
       <c r="A214" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B214" s="29" t="s">
+      <c r="B214" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="32" t="n">
+      <c r="C214" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E214" s="41" t="s">
+      <c r="E214" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F214" s="8"/>
@@ -5147,16 +5119,16 @@
       <c r="A215" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B215" s="29" t="s">
+      <c r="B215" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C215" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="32" t="n">
+      <c r="C215" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E215" s="41" t="s">
+      <c r="E215" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F215" s="12"/>
@@ -5165,16 +5137,16 @@
       <c r="A216" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B216" s="29" t="s">
+      <c r="B216" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C216" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="32" t="n">
+      <c r="C216" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E216" s="41" t="s">
+      <c r="E216" s="35" t="s">
         <v>211</v>
       </c>
       <c r="F216" s="8"/>
@@ -5183,16 +5155,16 @@
       <c r="A217" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B217" s="29" t="s">
+      <c r="B217" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C217" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="32" t="n">
+      <c r="C217" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E217" s="41" t="s">
+      <c r="E217" s="35" t="s">
         <v>211</v>
       </c>
       <c r="F217" s="12"/>
@@ -5201,16 +5173,16 @@
       <c r="A218" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B218" s="29" t="s">
+      <c r="B218" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C218" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="32" t="n">
+      <c r="C218" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="27" t="n">
         <v>3.996</v>
       </c>
-      <c r="E218" s="41" t="s">
+      <c r="E218" s="35" t="s">
         <v>211</v>
       </c>
       <c r="F218" s="12"/>
@@ -5219,7 +5191,7 @@
       <c r="A219" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B219" s="29" t="s">
+      <c r="B219" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C219" s="6" t="s">
@@ -5237,7 +5209,7 @@
       <c r="A220" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B220" s="29" t="s">
+      <c r="B220" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C220" s="6" t="s">
@@ -5255,13 +5227,13 @@
       <c r="A221" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B221" s="29" t="s">
+      <c r="B221" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D221" s="28" t="n">
+      <c r="D221" s="10" t="n">
         <v>3.996</v>
       </c>
       <c r="E221" s="7" t="s">
@@ -5273,16 +5245,16 @@
       <c r="A222" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B222" s="29" t="s">
+      <c r="B222" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C222" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="28" t="n">
+      <c r="C222" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="10" t="n">
         <v>3.996</v>
       </c>
-      <c r="E222" s="30" t="s">
+      <c r="E222" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F222" s="12"/>
@@ -5291,13 +5263,13 @@
       <c r="A223" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B223" s="29" t="s">
+      <c r="B223" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D223" s="28" t="n">
+      <c r="D223" s="10" t="n">
         <v>3.996</v>
       </c>
       <c r="E223" s="7" t="s">
@@ -5309,16 +5281,16 @@
       <c r="A224" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B224" s="29" t="s">
+      <c r="B224" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="31" t="n">
+      <c r="D224" s="20" t="n">
         <v>2.995</v>
       </c>
-      <c r="E224" s="30" t="s">
+      <c r="E224" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F224" s="12"/>
@@ -5327,10 +5299,10 @@
       <c r="A225" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B225" s="29" t="s">
+      <c r="B225" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D225" s="6" t="n">
@@ -5345,7 +5317,7 @@
       <c r="A226" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B226" s="29" t="s">
+      <c r="B226" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C226" s="6" t="s">
@@ -5363,7 +5335,7 @@
       <c r="A227" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B227" s="29" t="s">
+      <c r="B227" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C227" s="6" t="s">
@@ -5381,16 +5353,16 @@
       <c r="A228" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B228" s="29" t="s">
+      <c r="B228" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D228" s="28" t="n">
+      <c r="D228" s="10" t="n">
         <v>3.996</v>
       </c>
-      <c r="E228" s="30" t="s">
+      <c r="E228" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F228" s="12"/>
@@ -5399,16 +5371,16 @@
       <c r="A229" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B229" s="29" t="s">
+      <c r="B229" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C229" s="28" t="s">
+      <c r="C229" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D229" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E229" s="30" t="s">
+      <c r="E229" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F229" s="12"/>
@@ -5417,13 +5389,13 @@
       <c r="A230" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B230" s="29" t="s">
+      <c r="B230" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D230" s="28" t="n">
+      <c r="D230" s="10" t="n">
         <v>3.996</v>
       </c>
       <c r="E230" s="7" t="s">
@@ -5438,13 +5410,13 @@
       <c r="B231" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C231" s="28" t="s">
+      <c r="C231" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="6" t="n">
         <v>6.749</v>
       </c>
-      <c r="E231" s="30" t="s">
+      <c r="E231" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F231" s="8"/>
@@ -5456,13 +5428,13 @@
       <c r="B232" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C232" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="6" t="n">
         <v>6.749</v>
       </c>
-      <c r="E232" s="30" t="s">
+      <c r="E232" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="8"/>
@@ -5471,13 +5443,13 @@
       <c r="A233" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B233" s="29" t="s">
+      <c r="B233" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="31" t="n">
+      <c r="C233" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="20" t="n">
         <v>6.59</v>
       </c>
       <c r="E233" s="17" t="s">
@@ -5489,13 +5461,13 @@
       <c r="A234" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B234" s="29" t="s">
+      <c r="B234" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="31" t="n">
+      <c r="C234" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="20" t="n">
         <v>6.59</v>
       </c>
       <c r="E234" s="17" t="s">
@@ -5507,13 +5479,13 @@
       <c r="A235" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="29" t="s">
+      <c r="B235" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="31" t="n">
+      <c r="C235" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="20" t="n">
         <v>6.59</v>
       </c>
       <c r="E235" s="17" t="s">
@@ -5525,13 +5497,13 @@
       <c r="A236" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B236" s="29" t="s">
+      <c r="B236" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="31" t="n">
+      <c r="C236" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="20" t="n">
         <v>6.59</v>
       </c>
       <c r="E236" s="17" t="s">
@@ -5543,13 +5515,13 @@
       <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="29" t="s">
+      <c r="B237" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="31" t="n">
+      <c r="C237" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="20" t="n">
         <v>6.749</v>
       </c>
       <c r="E237" s="17" t="s">
@@ -5561,13 +5533,13 @@
       <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="29" t="s">
+      <c r="B238" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="31" t="n">
+      <c r="C238" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="20" t="n">
         <v>6.59</v>
       </c>
       <c r="E238" s="17" t="s">
@@ -5576,17 +5548,17 @@
       <c r="F238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="39" t="s">
+      <c r="A239" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="B239" s="35" t="s">
+      <c r="B239" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C239" s="31" t="s">
+      <c r="C239" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D239" s="31"/>
-      <c r="E239" s="36" t="s">
+      <c r="D239" s="20"/>
+      <c r="E239" s="31" t="s">
         <v>29</v>
       </c>
       <c r="F239" s="8"/>
@@ -5598,14 +5570,14 @@
       <c r="B240" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C240" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="23"/>
-      <c r="E240" s="21" t="s">
+      <c r="C240" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="22"/>
+      <c r="E240" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F240" s="23"/>
+      <c r="F240" s="22"/>
     </row>
     <row r="241" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="8" t="s">
@@ -5614,16 +5586,16 @@
       <c r="B241" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C241" s="41" t="s">
+      <c r="C241" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="16" t="n">
         <v>3994</v>
       </c>
-      <c r="E241" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F241" s="23"/>
+      <c r="E241" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" s="22"/>
     </row>
     <row r="242" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="8" t="s">
@@ -5632,16 +5604,16 @@
       <c r="B242" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C242" s="41" t="s">
+      <c r="C242" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D242" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E242" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F242" s="23"/>
+      <c r="E242" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" s="22"/>
     </row>
     <row r="243" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="8" t="s">
@@ -5650,34 +5622,34 @@
       <c r="B243" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C243" s="41" t="s">
+      <c r="C243" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D243" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E243" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F243" s="23"/>
+      <c r="E243" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" s="22"/>
     </row>
     <row r="244" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B244" s="52" t="s">
+      <c r="B244" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C244" s="41" t="s">
+      <c r="C244" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E244" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F244" s="23"/>
+      <c r="E244" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="22"/>
     </row>
     <row r="245" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="8" t="s">
@@ -5686,16 +5658,16 @@
       <c r="B245" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C245" s="41" t="s">
+      <c r="C245" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D245" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E245" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F245" s="23"/>
+      <c r="E245" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" s="22"/>
     </row>
     <row r="246" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="8" t="s">
@@ -5704,16 +5676,16 @@
       <c r="B246" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C246" s="41" t="s">
+      <c r="C246" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E246" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" s="23"/>
+      <c r="E246" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="22"/>
     </row>
     <row r="247" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
@@ -5722,16 +5694,16 @@
       <c r="B247" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C247" s="41" t="s">
+      <c r="C247" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E247" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F247" s="23"/>
+      <c r="E247" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="22"/>
     </row>
     <row r="248" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
@@ -5740,16 +5712,16 @@
       <c r="B248" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C248" s="41" t="s">
+      <c r="C248" s="35" t="s">
         <v>55</v>
       </c>
       <c r="D248" s="16" t="n">
         <v>3799</v>
       </c>
-      <c r="E248" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F248" s="23"/>
+      <c r="E248" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" s="22"/>
     </row>
     <row r="249" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
@@ -5758,16 +5730,16 @@
       <c r="B249" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C249" s="41" t="s">
+      <c r="C249" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="16" t="n">
         <v>3944</v>
       </c>
-      <c r="E249" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F249" s="23"/>
+      <c r="E249" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="22"/>
     </row>
     <row r="250" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F250" s="1"/>
